--- a/sources/tables/financial_summary.xlsx
+++ b/sources/tables/financial_summary.xlsx
@@ -1,37 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18933996/Desktop/Chat_bot/FinGigaChat/sources/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18908B62-2774-4D4C-9899-04D750E3C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>sector_id</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>review_table</t>
+  </si>
+  <si>
+    <t>pl_table</t>
+  </si>
+  <si>
+    <t>balance_table</t>
+  </si>
+  <si>
+    <t>money_table</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +79,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,696 +403,579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sector_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>company_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>client_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>balance</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>656</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>129</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>657</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>130</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>673</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>192</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>690</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>221</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>710</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>258</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>722</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>305</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>734</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>317</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>675</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>208</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>691</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>219</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>689</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>224</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>827</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>240</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>798</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>264</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>714</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>283</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>640</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>87</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>824</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>333</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>750</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>384</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>744</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>368</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>872</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>855</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1277</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>376</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>682</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>167</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>694</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>891</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>749</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>889</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>723</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>265</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>696</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>348</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>695</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>64</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>1437</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>116</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>1447</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>447</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>6</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>747</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>68</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>6</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>1404</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>151</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
         <v>1296</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>187</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>674</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>195</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>6</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>796</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>194</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>817</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>229</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>6</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
         <v>832</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>263</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>835</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>350</v>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>778</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>191</v>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>641</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>101</v>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>10</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>873</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>296</v>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
